--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,137 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>counting-sheep-dot-dot-dot</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>fake-binary</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>sum-mixed-array</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>keep-hydrated-1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>deodorant-evaporator</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>counting-in-the-amazon</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>tests-results</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>count-the-smiley-faces</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sql-with-harry-potter-sorting-hat-comparators</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>see-you-next-happy-year</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>80-s-kids-number-2-help-alf-find-his-spaceship</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>pete-the-baker</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>sorting-by-bits</t>
+          <t>Counting sheep...</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Vicrgallardon</t>
+          <t>maria-luisa-gomez</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -580,70 +460,10 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Santimoreno89</t>
+          <t>Lukesmith194</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -652,70 +472,10 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>olaya-marques</t>
+          <t>Julian.Trufero</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -724,142 +484,22 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ccastroblua</t>
+          <t>Jorge-Solana</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>borja Cañada</t>
+          <t>jaimecabanyes</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -868,72 +508,72 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>alvarogb1919</t>
+          <t>inigomuguiro</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Good</t>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>diegodiazgarciadev</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Diego.Cefalo</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>jalex141</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Sergio-1980</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>SONIAFERNANDEZC</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Counting sheep...</t>
+          <t>counting-sheep-dot-dot-dot</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,16 @@
           <t>counting-sheep-dot-dot-dot</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>deodorant-evaporator</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>counting-in-the-amazon</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -456,6 +466,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -468,6 +488,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -480,6 +510,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -492,6 +532,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -501,6 +551,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -513,6 +573,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -528,6 +598,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -540,6 +620,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -552,6 +642,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -564,6 +664,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -572,6 +682,16 @@
         </is>
       </c>
       <c r="B12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>No</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>counting-in-the-amazon</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>fake-binary</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -476,6 +481,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -495,6 +505,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -520,6 +535,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -539,7 +559,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -564,6 +589,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -586,6 +616,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -608,6 +643,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -630,6 +670,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -652,6 +697,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -674,6 +724,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -692,6 +747,11 @@
         </is>
       </c>
       <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>No</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,16 @@
           <t>fake-binary</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>keep-hydrated-1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>tests-results</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -486,6 +496,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -510,6 +530,16 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -540,6 +570,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -567,6 +607,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -591,6 +641,16 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -621,6 +681,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -648,6 +718,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -675,6 +755,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -702,6 +792,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -729,6 +829,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -752,6 +862,16 @@
         </is>
       </c>
       <c r="E12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>No</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>tests-results</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>count-the-smiley-faces</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -503,6 +508,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -540,6 +550,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -580,6 +595,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -617,6 +637,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -654,6 +679,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -691,6 +721,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -728,6 +763,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -765,6 +805,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -802,6 +847,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -836,6 +886,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -872,6 +927,11 @@
         </is>
       </c>
       <c r="G12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>No</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,16 @@
           <t>count-the-smiley-faces</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>see-you-next-happy-year</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>pete-the-baker</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +523,16 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -558,6 +578,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -600,6 +630,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -642,6 +682,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -684,6 +734,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -726,6 +786,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -768,6 +838,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -810,6 +890,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -852,6 +942,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -894,6 +994,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -934,6 +1044,16 @@
       <c r="H12" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,16 @@
           <t>pete-the-baker</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>scraping-get-the-year-a-codewarrior-joined</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>sql-with-harry-potter-sorting-hat-comparators</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -533,8 +543,16 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -588,6 +606,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -640,6 +666,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -692,6 +726,14 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -744,6 +786,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -796,6 +846,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -848,6 +906,14 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -900,6 +966,14 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -952,6 +1026,14 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1004,6 +1086,14 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1055,6 +1145,14 @@
         <is>
           <t>Good</t>
         </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -551,8 +551,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="L2" t="b">
-        <v>0</v>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -611,8 +613,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="L3" t="b">
-        <v>0</v>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -671,8 +675,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="L4" t="b">
-        <v>0</v>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -731,8 +737,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="L5" t="b">
-        <v>0</v>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -791,8 +799,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L6" t="b">
-        <v>0</v>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -851,8 +861,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L7" t="b">
-        <v>0</v>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -911,8 +923,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="L8" t="b">
-        <v>0</v>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -971,8 +985,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="L9" t="b">
-        <v>0</v>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1031,8 +1047,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="L10" t="b">
-        <v>0</v>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1091,8 +1109,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="L11" t="b">
-        <v>0</v>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1151,8 +1171,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L12" t="b">
-        <v>0</v>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,16 @@
           <t>sql-with-harry-potter-sorting-hat-comparators</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>decode-the-morse-code</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>the-supermarket-queue</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -556,6 +566,14 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -618,6 +636,14 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,6 +706,14 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -742,6 +776,14 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -804,6 +846,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -866,6 +916,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -928,6 +986,14 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -990,6 +1056,14 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1052,6 +1126,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1114,6 +1196,14 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1175,6 +1265,14 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>the-supermarket-queue</t>
+          <t>sorting-by-bits</t>
         </is>
       </c>
     </row>
@@ -571,8 +571,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="N2" t="b">
-        <v>0</v>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -641,8 +643,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="N3" t="b">
-        <v>0</v>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -711,8 +715,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="N4" t="b">
-        <v>0</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -781,8 +787,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="N5" t="b">
-        <v>0</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -851,8 +859,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="N6" t="b">
-        <v>0</v>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -921,8 +931,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="N7" t="b">
-        <v>0</v>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -991,8 +1003,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="N8" t="b">
-        <v>0</v>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1061,8 +1075,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="N9" t="b">
-        <v>0</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1131,8 +1147,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="N10" t="b">
-        <v>0</v>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1201,8 +1219,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="N11" t="b">
-        <v>0</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1271,8 +1291,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="N12" t="b">
-        <v>0</v>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,11 @@
           <t>sorting-by-bits</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>the-deaf-rats-of-hamelin</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -576,6 +581,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -648,6 +658,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -720,6 +735,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -792,6 +812,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -864,6 +889,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -936,6 +966,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1008,6 +1043,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1080,6 +1120,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1152,6 +1197,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1221,6 +1271,11 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -1292,6 +1347,11 @@
         </is>
       </c>
       <c r="N12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>No</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,26 @@
           <t>the-deaf-rats-of-hamelin</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ackermann-function</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>piano-kata-part-1</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>the-supermarket-queue</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>sql-basics-monsters-using-case</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -586,6 +606,24 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -663,6 +701,24 @@
           <t>No</t>
         </is>
       </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -740,6 +796,24 @@
           <t>No</t>
         </is>
       </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -817,6 +891,24 @@
           <t>No</t>
         </is>
       </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -894,6 +986,24 @@
           <t>No</t>
         </is>
       </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -971,6 +1081,24 @@
           <t>No</t>
         </is>
       </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1048,6 +1176,24 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1125,6 +1271,24 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1202,6 +1366,24 @@
           <t>No</t>
         </is>
       </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1276,8 +1458,26 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1355,6 +1555,24 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S12" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>counting-sheep-dot-dot-dot</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>fake-binary</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -456,6 +461,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -468,6 +478,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -480,6 +495,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -492,6 +512,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -504,6 +529,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -516,6 +546,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -528,6 +563,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -540,6 +580,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -552,6 +597,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -564,6 +614,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -576,6 +631,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -588,6 +648,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -600,6 +665,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -612,6 +682,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -624,6 +699,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -636,6 +716,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -648,6 +733,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -660,6 +750,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -672,6 +767,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -684,6 +784,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -696,6 +801,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -708,6 +818,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -720,6 +835,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -732,6 +852,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -740,6 +865,11 @@
         </is>
       </c>
       <c r="B26" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>Good</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>fake-binary</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>counting-in-the-amazon</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -466,6 +471,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -483,6 +493,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -500,6 +515,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -517,6 +537,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -534,6 +559,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -551,6 +581,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -568,6 +603,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -585,6 +625,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -602,6 +647,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -619,6 +669,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -636,6 +691,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -653,6 +713,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -667,6 +732,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -687,6 +757,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -704,6 +779,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -721,6 +801,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -738,6 +823,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -755,6 +845,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -772,6 +867,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -789,6 +889,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -806,6 +911,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -823,6 +933,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -840,6 +955,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -857,6 +977,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -872,6 +997,11 @@
       <c r="C26" t="inlineStr">
         <is>
           <t>Good</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>counting-in-the-amazon</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>deodorant-evaporator</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -476,6 +481,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -498,16 +508,21 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>daniela-arias</t>
+          <t>Juanpda</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -517,14 +532,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>baccandres</t>
+          <t>daniela-arias</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -538,6 +558,11 @@
         </is>
       </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
@@ -546,12 +571,12 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>silviarico</t>
+          <t>baccandres</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -560,6 +585,11 @@
         </is>
       </c>
       <c r="D6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
@@ -568,12 +598,12 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>EduardoRivera_98</t>
+          <t>silviarico</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -582,6 +612,11 @@
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -590,7 +625,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>LuisSerranoCerame</t>
+          <t>EduardoRivera_98</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -605,14 +640,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>mariaperezdeayalas</t>
+          <t>LuisSerranoCerame</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -628,13 +668,18 @@
       <c r="D9" t="inlineStr">
         <is>
           <t>Good</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>NicolasPce</t>
+          <t>mariaperezdeayalas</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -648,6 +693,11 @@
         </is>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
@@ -656,7 +706,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>bvispo</t>
+          <t>NicolasPce</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -670,6 +720,11 @@
         </is>
       </c>
       <c r="D11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -678,7 +733,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mariadelas</t>
+          <t>bvispo</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -694,13 +749,18 @@
       <c r="D12" t="inlineStr">
         <is>
           <t>Good</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>a_romegar</t>
+          <t>mariadelas</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -716,18 +776,23 @@
       <c r="D13" t="inlineStr">
         <is>
           <t>Good</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Roblak96</t>
+          <t>a_romegar</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -737,19 +802,24 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>LydiaAR</t>
+          <t>Roblak96</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -760,13 +830,18 @@
       <c r="D15" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>beatrizsp</t>
+          <t>LydiaAR</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -780,6 +855,11 @@
         </is>
       </c>
       <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -788,7 +868,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>elliotesp</t>
+          <t>beatrizsp</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -803,14 +883,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Carlosleono</t>
+          <t>elliotesp</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -824,6 +909,11 @@
         </is>
       </c>
       <c r="D18" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
@@ -832,7 +922,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>pedromartinezleis</t>
+          <t>Carlosleono</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -846,6 +936,11 @@
         </is>
       </c>
       <c r="D19" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
@@ -854,7 +949,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Danihelguera</t>
+          <t>pedromartinezleis</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -868,6 +963,11 @@
         </is>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
@@ -876,7 +976,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>sinatxe</t>
+          <t>Danihelguera</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -890,6 +990,11 @@
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
@@ -898,7 +1003,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Andrestart</t>
+          <t>sinatxe</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -913,19 +1018,24 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Pnat1</t>
+          <t>Andrestart</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -935,19 +1045,24 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>TheIronhidex</t>
+          <t>Pnat1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -958,13 +1073,18 @@
       <c r="D24" t="inlineStr">
         <is>
           <t>Good</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AnaWalsh</t>
+          <t>TheIronhidex</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -974,34 +1094,71 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>AnaWalsh</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
           <t>Afidalgo-fmm</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>No</t>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>deodorant-evaporator</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tests-results</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -486,6 +491,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +521,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -540,6 +551,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -567,6 +581,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -594,6 +611,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -621,6 +641,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -648,6 +671,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -675,6 +701,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -702,6 +731,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -726,8 +758,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -753,8 +788,11 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -783,6 +821,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -810,6 +851,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -837,6 +881,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -861,8 +908,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -888,8 +938,11 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -918,6 +971,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -945,6 +1001,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -972,6 +1031,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -999,6 +1061,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1026,6 +1091,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1053,6 +1121,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1077,8 +1148,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1107,6 +1181,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1131,8 +1208,11 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1160,6 +1240,9 @@
         <is>
           <t>Good</t>
         </is>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -491,8 +491,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="F2" t="b">
-        <v>0</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -521,8 +523,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="F3" t="b">
-        <v>0</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -551,8 +555,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="F4" t="b">
-        <v>0</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -581,8 +587,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="F5" t="b">
-        <v>0</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -611,8 +619,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="F6" t="b">
-        <v>0</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -641,8 +651,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="F7" t="b">
-        <v>0</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -671,8 +683,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="F8" t="b">
-        <v>0</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -701,8 +715,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="F9" t="b">
-        <v>0</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -731,8 +747,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="F10" t="b">
-        <v>0</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -761,8 +779,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="F11" t="b">
-        <v>0</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -791,8 +811,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="F12" t="b">
-        <v>0</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -821,8 +843,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="F13" t="b">
-        <v>0</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -851,8 +875,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="F14" t="b">
-        <v>0</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -881,8 +907,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="F15" t="b">
-        <v>0</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -911,8 +939,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="F16" t="b">
-        <v>0</v>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -941,8 +971,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="F17" t="b">
-        <v>0</v>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -971,8 +1003,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="F18" t="b">
-        <v>0</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1001,8 +1035,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="F19" t="b">
-        <v>0</v>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1031,8 +1067,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="F20" t="b">
-        <v>0</v>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1061,8 +1099,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="F21" t="b">
-        <v>0</v>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1091,8 +1131,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="F22" t="b">
-        <v>0</v>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1121,8 +1163,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="F23" t="b">
-        <v>0</v>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1151,8 +1195,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="F24" t="b">
-        <v>0</v>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1181,8 +1227,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="F25" t="b">
-        <v>0</v>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1211,8 +1259,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="F26" t="b">
-        <v>0</v>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1241,8 +1291,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="F27" t="b">
-        <v>0</v>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>tests-results</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>count-the-smiley-faces</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -496,6 +501,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -528,6 +538,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -560,6 +575,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -592,6 +612,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -621,6 +646,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -656,6 +686,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -688,6 +723,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -717,7 +757,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -752,6 +797,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -784,6 +834,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -816,6 +871,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -848,6 +908,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -880,6 +945,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -912,6 +982,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -944,6 +1019,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -976,6 +1056,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1005,6 +1090,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -1040,6 +1130,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1072,6 +1167,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1104,6 +1204,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1136,6 +1241,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1168,6 +1278,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1197,6 +1312,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -1232,6 +1352,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1264,6 +1389,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1292,6 +1422,11 @@
         </is>
       </c>
       <c r="F27" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>Good</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -984,7 +984,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>count-the-smiley-faces</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>keep-hydrated-1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -506,6 +511,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -543,6 +553,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -580,6 +595,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -617,6 +637,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -654,6 +679,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -691,6 +721,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -728,6 +763,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -765,6 +805,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -802,6 +847,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -839,6 +889,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -876,6 +931,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -913,6 +973,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -950,6 +1015,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -987,6 +1057,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1024,6 +1099,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1061,6 +1141,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1098,6 +1183,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1135,6 +1225,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1172,6 +1267,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1209,6 +1309,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1246,6 +1351,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1283,6 +1393,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1320,6 +1435,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1357,6 +1477,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1394,6 +1519,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1427,6 +1557,11 @@
         </is>
       </c>
       <c r="G27" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Good</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>keep-hydrated-1</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>see-you-next-happy-year</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,8 +518,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -558,6 +566,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -600,6 +611,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -639,8 +653,11 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -684,6 +701,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -726,6 +746,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -765,8 +788,11 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -810,6 +836,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -852,6 +881,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -894,6 +926,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -936,6 +971,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -978,6 +1016,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1020,6 +1061,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1059,8 +1103,11 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1101,8 +1148,11 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1146,6 +1196,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1188,6 +1241,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1230,6 +1286,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1272,6 +1331,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1314,6 +1376,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1356,6 +1421,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1398,6 +1466,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1437,8 +1508,11 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1482,6 +1556,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1524,6 +1601,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1565,6 +1645,9 @@
         <is>
           <t>Good</t>
         </is>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -521,8 +521,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -566,8 +568,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -611,8 +615,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -656,8 +662,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -701,8 +709,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -746,8 +756,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -791,8 +803,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -836,8 +850,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -881,8 +897,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -926,8 +944,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -971,8 +991,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1016,8 +1038,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1061,8 +1085,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1106,8 +1132,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1151,8 +1179,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1196,8 +1226,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1241,8 +1273,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1286,8 +1320,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1331,8 +1367,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1376,8 +1414,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1421,8 +1461,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1466,8 +1508,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1511,8 +1555,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1556,8 +1602,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1601,8 +1649,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1646,8 +1696,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,11 +479,16 @@
           <t>see-you-next-happy-year</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>pete-the-baker</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>FerZZ</t>
+          <t>a_romegar</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -525,12 +530,15 @@
         <is>
           <t>Good</t>
         </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>juanchovpa</t>
+          <t>Afidalgo-fmm</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -550,12 +558,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -570,29 +578,32 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Juanpda</t>
+          <t>AnaWalsh</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -602,7 +613,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -619,12 +630,15 @@
         <is>
           <t>Good</t>
         </is>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>daniela-arias</t>
+          <t>Andrestart</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -639,7 +653,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -649,7 +663,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -666,6 +680,9 @@
         <is>
           <t>Good</t>
         </is>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -714,16 +731,19 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>silviarico</t>
+          <t>beatrizsp</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -733,17 +753,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -760,12 +780,15 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>EduardoRivera_98</t>
+          <t>bvispo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -790,7 +813,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -805,14 +828,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Good</t>
-        </is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>LuisSerranoCerame</t>
+          <t>Carlosleono</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -832,7 +858,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -854,12 +880,15 @@
         <is>
           <t>Good</t>
         </is>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mariaperezdeayalas</t>
+          <t>Danihelguera</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -884,7 +913,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -899,14 +928,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>NicolasPce</t>
+          <t>EduardoRivera_98</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -936,7 +968,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -948,12 +980,15 @@
         <is>
           <t>Good</t>
         </is>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>bvispo</t>
+          <t>elliotesp</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -978,12 +1013,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -995,12 +1030,15 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>mariadelas</t>
+          <t>sinatxe</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1020,7 +1058,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1040,14 +1078,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>a_romegar</t>
+          <t>FerZZ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1089,12 +1130,15 @@
         <is>
           <t>Good</t>
         </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Roblak96</t>
+          <t>Pnat1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1109,7 +1153,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1119,12 +1163,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1134,19 +1178,22 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>LydiaAR</t>
+          <t>Juanpda</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1156,7 +1203,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1166,7 +1213,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1181,14 +1228,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>beatrizsp</t>
+          <t>juanchovpa</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1203,12 +1253,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1230,12 +1280,15 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>elliotesp</t>
+          <t>LuisSerranoCerame</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1255,7 +1308,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1275,14 +1328,17 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Carlosleono</t>
+          <t>LydiaAR</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1297,7 +1353,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1307,12 +1363,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1322,14 +1378,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Good</t>
-        </is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>pedromartinezleis</t>
+          <t>mariaperezdeayalas</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1354,7 +1413,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1369,14 +1428,17 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Good</t>
-        </is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Danihelguera</t>
+          <t>mariadelas</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1396,7 +1458,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1416,14 +1478,17 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Good</t>
-        </is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>sinatxe</t>
+          <t>NicolasPce</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1465,12 +1530,15 @@
         <is>
           <t>Good</t>
         </is>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Andrestart</t>
+          <t>pedromartinezleis</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1510,14 +1578,17 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Pnat1</t>
+          <t>Roblak96</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1532,7 +1603,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1542,12 +1613,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1557,19 +1628,22 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Good</t>
-        </is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>TheIronhidex</t>
+          <t>silviarico</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1584,7 +1658,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1604,14 +1678,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Good</t>
-        </is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AnaWalsh</t>
+          <t>TheIronhidex</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1621,12 +1698,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1636,12 +1713,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1651,14 +1728,17 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Afidalgo-fmm</t>
+          <t>daniela-arias</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1673,7 +1753,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1683,7 +1763,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1698,8 +1778,11 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -531,8 +531,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J2" t="b">
-        <v>0</v>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -581,8 +583,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J3" t="b">
-        <v>0</v>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -631,8 +635,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J4" t="b">
-        <v>0</v>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -681,8 +687,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J5" t="b">
-        <v>0</v>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -731,8 +739,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J6" t="b">
-        <v>0</v>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -781,8 +791,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="J7" t="b">
-        <v>0</v>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -831,8 +843,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="J8" t="b">
-        <v>0</v>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -881,8 +895,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J9" t="b">
-        <v>0</v>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -931,8 +947,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J10" t="b">
-        <v>0</v>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -981,8 +999,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J11" t="b">
-        <v>0</v>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1031,8 +1051,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="J12" t="b">
-        <v>0</v>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1081,8 +1103,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J13" t="b">
-        <v>0</v>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1131,8 +1155,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J14" t="b">
-        <v>0</v>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1181,8 +1207,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J15" t="b">
-        <v>0</v>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1231,8 +1259,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J16" t="b">
-        <v>0</v>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1281,8 +1311,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="J17" t="b">
-        <v>0</v>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1331,8 +1363,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J18" t="b">
-        <v>0</v>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1381,8 +1415,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="J19" t="b">
-        <v>0</v>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1431,8 +1467,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="J20" t="b">
-        <v>0</v>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1481,8 +1519,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="J21" t="b">
-        <v>0</v>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1531,8 +1571,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J22" t="b">
-        <v>0</v>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1581,8 +1623,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J23" t="b">
-        <v>0</v>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1631,8 +1675,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="J24" t="b">
-        <v>0</v>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1681,8 +1727,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="J25" t="b">
-        <v>0</v>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1731,8 +1779,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J26" t="b">
-        <v>0</v>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1781,8 +1831,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J27" t="b">
-        <v>0</v>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>pete-the-baker</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>scraping-get-the-year-a-codewarrior-joined</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -536,6 +541,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -588,6 +596,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -640,6 +651,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -692,6 +706,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -744,6 +761,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -796,6 +816,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -848,6 +871,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -900,6 +926,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -952,6 +981,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1004,6 +1036,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1056,6 +1091,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1108,6 +1146,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1160,6 +1201,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1212,6 +1256,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1264,6 +1311,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1316,6 +1366,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1368,6 +1421,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1420,6 +1476,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1472,6 +1531,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1524,6 +1586,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1576,6 +1641,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1628,6 +1696,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1680,6 +1751,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1732,6 +1806,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1784,6 +1861,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1835,6 +1915,9 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -541,8 +541,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="K2" t="b">
-        <v>0</v>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -596,8 +598,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="K3" t="b">
-        <v>0</v>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -651,8 +655,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="K4" t="b">
-        <v>0</v>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -706,8 +712,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="K5" t="b">
-        <v>0</v>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -761,8 +769,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="K6" t="b">
-        <v>0</v>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -816,8 +826,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="K7" t="b">
-        <v>0</v>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -871,8 +883,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="K8" t="b">
-        <v>0</v>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -926,8 +940,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="K9" t="b">
-        <v>0</v>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -981,8 +997,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="K10" t="b">
-        <v>0</v>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1036,8 +1054,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="K11" t="b">
-        <v>0</v>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1091,8 +1111,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="K12" t="b">
-        <v>0</v>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1146,8 +1168,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="K13" t="b">
-        <v>0</v>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1201,8 +1225,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="K14" t="b">
-        <v>0</v>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1256,8 +1282,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="K15" t="b">
-        <v>0</v>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1311,8 +1339,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="K16" t="b">
-        <v>0</v>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1366,8 +1396,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="K17" t="b">
-        <v>0</v>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1421,8 +1453,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="K18" t="b">
-        <v>0</v>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1476,8 +1510,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="K19" t="b">
-        <v>0</v>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1531,8 +1567,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="K20" t="b">
-        <v>0</v>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1586,8 +1624,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="K21" t="b">
-        <v>0</v>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1641,8 +1681,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="K22" t="b">
-        <v>0</v>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1696,8 +1738,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="K23" t="b">
-        <v>0</v>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1751,8 +1795,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="K24" t="b">
-        <v>0</v>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1806,8 +1852,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="K25" t="b">
-        <v>0</v>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1861,8 +1909,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="K26" t="b">
-        <v>0</v>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1916,8 +1966,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="K27" t="b">
-        <v>0</v>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>scraping-get-the-year-a-codewarrior-joined</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>sql-with-harry-potter-sorting-hat-comparators</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -546,6 +551,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -603,6 +611,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -660,6 +671,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -717,6 +731,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -774,6 +791,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -831,6 +851,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -888,6 +911,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -945,6 +971,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1002,6 +1031,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1059,6 +1091,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1116,6 +1151,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1173,6 +1211,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1230,6 +1271,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1287,6 +1331,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1344,6 +1391,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1401,6 +1451,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1458,6 +1511,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1515,6 +1571,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1572,6 +1631,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1629,6 +1691,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1686,6 +1751,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1743,6 +1811,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1800,6 +1871,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1857,6 +1931,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1914,6 +1991,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1970,6 +2050,9 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -551,8 +551,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="L2" t="b">
-        <v>0</v>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -611,8 +613,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L3" t="b">
-        <v>0</v>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -671,8 +675,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L4" t="b">
-        <v>0</v>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -731,8 +737,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L5" t="b">
-        <v>0</v>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -791,8 +799,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="L6" t="b">
-        <v>0</v>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -851,8 +861,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L7" t="b">
-        <v>0</v>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -911,8 +923,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L8" t="b">
-        <v>0</v>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -971,8 +985,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="L9" t="b">
-        <v>0</v>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1031,8 +1047,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="L10" t="b">
-        <v>0</v>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1091,8 +1109,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L11" t="b">
-        <v>0</v>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1151,8 +1171,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L12" t="b">
-        <v>0</v>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1211,8 +1233,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L13" t="b">
-        <v>0</v>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1271,8 +1295,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="L14" t="b">
-        <v>0</v>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1331,8 +1357,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L15" t="b">
-        <v>0</v>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1391,8 +1419,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L16" t="b">
-        <v>0</v>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1451,8 +1481,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L17" t="b">
-        <v>0</v>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1511,8 +1543,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L18" t="b">
-        <v>0</v>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1571,8 +1605,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L19" t="b">
-        <v>0</v>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1631,8 +1667,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="L20" t="b">
-        <v>0</v>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1691,8 +1729,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L21" t="b">
-        <v>0</v>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1751,8 +1791,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L22" t="b">
-        <v>0</v>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1811,8 +1853,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="L23" t="b">
-        <v>0</v>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1871,8 +1915,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="L24" t="b">
-        <v>0</v>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1931,8 +1977,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L25" t="b">
-        <v>0</v>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1991,8 +2039,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="L26" t="b">
-        <v>0</v>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -2051,8 +2101,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L27" t="b">
-        <v>0</v>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>sql-with-harry-potter-sorting-hat-comparators</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>decode-the-morse-code</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -556,6 +561,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -618,6 +626,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,6 +691,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -742,6 +756,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -804,6 +821,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -866,6 +886,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -928,6 +951,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -990,6 +1016,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1052,6 +1081,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1114,6 +1146,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1176,6 +1211,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1238,6 +1276,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1300,6 +1341,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1362,6 +1406,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1424,6 +1471,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1486,6 +1536,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1548,6 +1601,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1610,6 +1666,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1672,6 +1731,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1734,6 +1796,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1796,6 +1861,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1858,6 +1926,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1920,6 +1991,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1982,6 +2056,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -2044,6 +2121,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2105,6 +2185,9 @@
         <is>
           <t>Good</t>
         </is>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -561,8 +561,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -626,8 +628,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -691,8 +695,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -756,8 +762,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -821,8 +829,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -886,8 +896,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -951,8 +963,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1016,8 +1030,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1081,8 +1097,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1146,8 +1164,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1211,8 +1231,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1276,8 +1298,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1341,8 +1365,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1406,8 +1432,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1471,8 +1499,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1536,8 +1566,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1601,8 +1633,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1666,8 +1700,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1731,8 +1767,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1796,8 +1834,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1861,8 +1901,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1926,8 +1968,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1991,8 +2035,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -2056,8 +2102,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -2121,8 +2169,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -2186,8 +2236,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>decode-the-morse-code</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>sorting-by-bits</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -566,6 +571,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -633,6 +641,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -700,6 +711,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -767,6 +781,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -834,6 +851,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -901,6 +921,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -968,6 +991,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1035,6 +1061,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1102,6 +1131,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1169,6 +1201,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1236,6 +1271,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1303,6 +1341,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1370,6 +1411,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1437,6 +1481,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1504,6 +1551,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1571,6 +1621,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1638,6 +1691,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1705,6 +1761,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1772,6 +1831,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1839,6 +1901,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1906,6 +1971,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1973,6 +2041,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -2040,6 +2111,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2107,6 +2181,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -2174,6 +2251,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="N26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2240,6 +2320,9 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="N27" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>counting-sheep-dot-dot-dot</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>regular-ball-super-ball</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -456,6 +461,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -465,7 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -477,7 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -489,7 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -501,7 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -513,7 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -525,7 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -540,6 +580,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -549,7 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -561,7 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -573,7 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -585,7 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -597,7 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -609,7 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -620,6 +695,11 @@
         </is>
       </c>
       <c r="B16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>No</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,16 @@
           <t>regular-ball-super-ball</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>fake-binary</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>counting-in-the-amazon</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -466,6 +476,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -483,6 +503,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -500,6 +530,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -517,6 +557,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -534,6 +584,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -551,6 +611,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -568,6 +638,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -585,6 +665,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -602,6 +692,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -619,6 +719,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -636,6 +746,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -653,6 +773,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -670,6 +800,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -687,6 +827,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -700,6 +850,16 @@
         </is>
       </c>
       <c r="C16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>No</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,7 +510,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -862,6 +862,33 @@
       <c r="E16" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>IsabelGarcia11</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,16 @@
           <t>counting-in-the-amazon</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>deodorant-evaporator</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>tests-results</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -486,6 +496,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +533,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -540,6 +570,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -567,6 +607,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -594,6 +644,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -621,6 +681,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -648,6 +718,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -675,6 +755,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -702,6 +792,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -729,6 +829,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -756,6 +866,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -783,6 +903,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -810,6 +940,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -837,6 +977,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -864,6 +1014,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -889,6 +1049,16 @@
       <c r="E17" t="inlineStr">
         <is>
           <t>Good</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>tests-results</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>count-the-smiley-faces</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -506,6 +511,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -543,6 +551,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -580,6 +591,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -614,8 +628,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -651,8 +668,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -691,6 +711,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -725,8 +748,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -765,6 +791,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -802,6 +831,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -839,6 +871,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -873,8 +908,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -913,6 +951,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -950,6 +991,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -984,8 +1028,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1024,6 +1071,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1060,6 +1110,9 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -511,8 +511,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -551,8 +553,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -591,8 +595,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -631,8 +637,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="H5" t="b">
-        <v>0</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -671,8 +679,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="H6" t="b">
-        <v>0</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -711,8 +721,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="H7" t="b">
-        <v>0</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -751,8 +763,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="H8" t="b">
-        <v>0</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -791,8 +805,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="H9" t="b">
-        <v>0</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -831,8 +847,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="H10" t="b">
-        <v>0</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -871,8 +889,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="H11" t="b">
-        <v>0</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -911,8 +931,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="H12" t="b">
-        <v>0</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -951,8 +973,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="H13" t="b">
-        <v>0</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -991,8 +1015,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="H14" t="b">
-        <v>0</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1031,8 +1057,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="H15" t="b">
-        <v>0</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1071,8 +1099,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="H16" t="b">
-        <v>0</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1111,8 +1141,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="H17" t="b">
-        <v>0</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,21 @@
           <t>count-the-smiley-faces</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>keep-hydrated-1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sql-sailor-moon</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>see-you-next-happy-year</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -516,6 +531,19 @@
           <t>No</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +586,19 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -600,6 +641,19 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -642,6 +696,19 @@
           <t>No</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -684,6 +751,19 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -726,6 +806,19 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -768,6 +861,19 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -810,6 +916,19 @@
           <t>No</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -852,6 +971,19 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -894,6 +1026,19 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -936,6 +1081,19 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -978,6 +1136,19 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1020,6 +1191,19 @@
           <t>No</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1062,6 +1246,19 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1104,6 +1301,19 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1144,6 +1354,19 @@
       <c r="H17" t="inlineStr">
         <is>
           <t>Good</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,16 +489,21 @@
           <t>see-you-next-happy-year</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>sql-with-harry-potter-sorting-hat-comparators</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>sergiomessaoudi</t>
+          <t>SergioMB12</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -508,17 +513,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -528,12 +533,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -544,11 +549,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>SergioMB12</t>
+          <t>DiSanchz</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -578,7 +588,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -596,14 +606,19 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>DiSanchz</t>
+          <t>ce-valle</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -628,7 +643,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -638,7 +653,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -654,11 +669,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ce-valle</t>
+          <t>VictorPablo12</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -693,12 +713,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -709,11 +729,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>VictorPablo12</t>
+          <t>AntonioLopga12</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -733,7 +758,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -743,7 +768,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -761,6 +786,11 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -768,7 +798,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AntonioLopga12</t>
+          <t>Gitfracto</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -788,17 +818,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -808,7 +838,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -816,24 +846,29 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Gitfracto</t>
+          <t>juanamir</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -843,22 +878,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -874,21 +909,26 @@
           <t>No</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>juanamir</t>
+          <t>Pomilusky</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -898,22 +938,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -926,14 +966,19 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Pomilusky</t>
+          <t>pablomora213</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -948,22 +993,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -973,7 +1018,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -984,11 +1029,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>pablomora213</t>
+          <t>evaarquero</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1003,22 +1053,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1028,7 +1078,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -1036,14 +1086,19 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>evaarquero</t>
+          <t>rodrigogalan</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1091,14 +1146,19 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>rodrigogalan</t>
+          <t>Jesus Chao</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1113,12 +1173,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1128,12 +1188,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1146,6 +1206,11 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>Good</t>
         </is>
       </c>
@@ -1153,7 +1218,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jesus Chao</t>
+          <t>mariozapatero</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1173,22 +1238,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1201,14 +1266,19 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>mariozapatero</t>
+          <t>Marilyn</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1218,7 +1288,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1228,7 +1298,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1238,7 +1308,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1259,36 +1329,41 @@
           <t>No</t>
         </is>
       </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Marilyn</t>
+          <t>IsabelGarcia11</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1311,62 +1386,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>IsabelGarcia11</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="J17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>sql-with-harry-potter-sorting-hat-comparators</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>pete-the-baker</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -554,6 +559,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -614,6 +624,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -674,6 +689,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -734,6 +754,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -794,6 +819,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -854,6 +884,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -914,6 +949,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -974,6 +1014,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1034,6 +1079,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1094,6 +1144,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1154,6 +1209,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1214,6 +1274,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1274,6 +1339,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1334,6 +1404,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1392,6 +1467,11 @@
       <c r="L16" t="inlineStr">
         <is>
           <t>Good</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>pete-the-baker</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>the-deaf-rats-of-hamelin</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -564,6 +569,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -629,6 +639,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -694,6 +709,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -759,6 +779,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -824,6 +849,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -889,6 +919,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -954,6 +989,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1019,6 +1059,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1084,6 +1129,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1149,6 +1199,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1214,6 +1269,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1279,6 +1339,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1344,6 +1409,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1409,6 +1479,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1470,6 +1545,11 @@
         </is>
       </c>
       <c r="M16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>No</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -1201,7 +1201,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,11 @@
           <t>the-deaf-rats-of-hamelin</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>scraping-get-the-year-a-codewarrior-joined</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -574,6 +579,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -644,6 +654,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -714,6 +729,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -784,6 +804,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -854,6 +879,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -924,6 +954,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -994,6 +1029,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1064,6 +1104,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1134,6 +1179,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1204,6 +1254,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1274,6 +1329,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1344,6 +1404,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1414,6 +1479,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1484,6 +1554,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1550,6 +1625,11 @@
         </is>
       </c>
       <c r="N16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
         <is>
           <t>No</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,16 @@
           <t>scraping-get-the-year-a-codewarrior-joined</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>decode-the-morse-code</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>user-class-for-banking-system</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -584,6 +594,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -659,6 +679,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -734,6 +764,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -809,6 +849,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -884,6 +934,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -959,6 +1019,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1034,6 +1104,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1109,6 +1189,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1184,6 +1274,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1259,6 +1359,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1334,6 +1444,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1409,6 +1529,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1484,6 +1614,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1559,6 +1699,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1630,6 +1780,16 @@
         </is>
       </c>
       <c r="O16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>No</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,16 @@
           <t>user-class-for-banking-system</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>the-supermarket-queue</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>80-s-kids-number-2-help-alf-find-his-spaceship</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -601,6 +611,16 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -689,6 +709,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -774,6 +804,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -859,6 +899,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -944,6 +994,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1029,6 +1089,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1114,6 +1184,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1199,6 +1279,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1281,6 +1371,16 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -1361,10 +1461,20 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
@@ -1454,6 +1564,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1539,6 +1659,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1624,6 +1754,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1709,6 +1849,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1790,6 +1940,16 @@
         </is>
       </c>
       <c r="Q16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>No</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>sql-sailor-moon</t>
+          <t>sql-with-sailor-moon-thinking-about-joins-dot-dot-dot</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -527,6 +527,16 @@
       <c r="S1" s="1" t="inlineStr">
         <is>
           <t>80-s-kids-number-2-help-alf-find-his-spaceship</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>sorting-by-bits</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>unknown-amount-of-duplicates-one-missing-number</t>
         </is>
       </c>
     </row>
@@ -576,53 +586,63 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J2" t="b">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U2" t="b">
         <v>0</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
       </c>
     </row>
     <row r="3">
@@ -671,53 +691,63 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J3" t="b">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U3" t="b">
         <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
       </c>
     </row>
     <row r="4">
@@ -766,53 +796,63 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J4" t="b">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U4" t="b">
         <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
       </c>
     </row>
     <row r="5">
@@ -861,53 +901,63 @@
           <t>No</t>
         </is>
       </c>
-      <c r="J5" t="b">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U5" t="b">
         <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
       </c>
     </row>
     <row r="6">
@@ -956,53 +1006,63 @@
           <t>No</t>
         </is>
       </c>
-      <c r="J6" t="b">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U6" t="b">
         <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
       </c>
     </row>
     <row r="7">
@@ -1051,53 +1111,63 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J7" t="b">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U7" t="b">
         <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
       </c>
     </row>
     <row r="8">
@@ -1146,53 +1216,63 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J8" t="b">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U8" t="b">
         <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
       </c>
     </row>
     <row r="9">
@@ -1241,53 +1321,63 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J9" t="b">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U9" t="b">
         <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
       </c>
     </row>
     <row r="10">
@@ -1336,53 +1426,63 @@
           <t>No</t>
         </is>
       </c>
-      <c r="J10" t="b">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U10" t="b">
         <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
       </c>
     </row>
     <row r="11">
@@ -1431,53 +1531,63 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J11" t="b">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U11" t="b">
         <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
       </c>
     </row>
     <row r="12">
@@ -1526,53 +1636,63 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J12" t="b">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="U12" t="b">
         <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
       </c>
     </row>
     <row r="13">
@@ -1621,53 +1741,63 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J13" t="b">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U13" t="b">
         <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
       </c>
     </row>
     <row r="14">
@@ -1716,53 +1846,63 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J14" t="b">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U14" t="b">
         <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
       </c>
     </row>
     <row r="15">
@@ -1811,53 +1951,63 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J15" t="b">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U15" t="b">
         <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
       </c>
     </row>
     <row r="16">
@@ -1906,53 +2056,63 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="J16" t="b">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U16" t="b">
         <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,11 +534,6 @@
           <t>sorting-by-bits</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>unknown-amount-of-duplicates-one-missing-number</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -641,9 +636,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -746,9 +738,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -851,9 +840,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -956,9 +942,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1058,11 +1041,8 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="U6" t="b">
-        <v>0</v>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1163,11 +1143,8 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="U7" t="b">
-        <v>0</v>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1271,9 +1248,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1373,11 +1347,8 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="U9" t="b">
-        <v>0</v>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1478,11 +1449,8 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="U10" t="b">
-        <v>0</v>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1586,9 +1554,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1691,9 +1656,6 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1796,9 +1758,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1898,11 +1857,8 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="U14" t="b">
-        <v>0</v>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2006,9 +1962,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2110,9 +2063,6 @@
         <is>
           <t>No</t>
         </is>
-      </c>
-      <c r="U16" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,6 +534,16 @@
           <t>sorting-by-bits</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>sql-basics-monsters-using-case</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>give-me-a-diamond</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -636,6 +646,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -738,6 +758,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -840,6 +870,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -942,6 +982,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1044,6 +1094,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1146,6 +1206,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1248,6 +1318,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1350,6 +1430,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1452,6 +1542,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1554,6 +1654,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1656,6 +1766,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1758,6 +1878,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1860,6 +1990,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1962,6 +2102,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2060,6 +2210,16 @@
         </is>
       </c>
       <c r="T16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
         <is>
           <t>No</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,6 +544,11 @@
           <t>give-me-a-diamond</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>complete-the-table-pattern</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -656,6 +661,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="W2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -768,6 +776,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -880,6 +891,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="W4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -992,6 +1006,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1104,6 +1121,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1216,6 +1236,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="W7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1328,6 +1351,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1440,6 +1466,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="W9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1544,13 +1573,16 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="W10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1664,6 +1696,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="W11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1776,6 +1811,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="W12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1888,6 +1926,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="W13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1997,8 +2038,11 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="W14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2112,6 +2156,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="W15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2223,6 +2270,9 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="W16" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,11 @@
           <t>complete-the-table-pattern</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>piano-kata-part-1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -661,8 +666,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="W2" t="b">
-        <v>0</v>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -776,8 +788,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="W3" t="b">
-        <v>0</v>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -891,8 +910,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="W4" t="b">
-        <v>0</v>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1006,8 +1032,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="W5" t="b">
-        <v>0</v>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1121,8 +1154,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="W6" t="b">
-        <v>0</v>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1236,8 +1276,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="W7" t="b">
-        <v>0</v>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1351,8 +1398,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="W8" t="b">
-        <v>0</v>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1466,8 +1520,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="W9" t="b">
-        <v>0</v>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1581,8 +1642,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="W10" t="b">
-        <v>0</v>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1696,8 +1764,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="W11" t="b">
-        <v>0</v>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1811,8 +1886,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="W12" t="b">
-        <v>0</v>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1926,8 +2008,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="W13" t="b">
-        <v>0</v>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2041,8 +2130,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="W14" t="b">
-        <v>0</v>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2156,8 +2252,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="W15" t="b">
-        <v>0</v>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2271,8 +2374,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="W16" t="b">
-        <v>0</v>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -461,8 +461,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C2" t="b">
-        <v>0</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -476,8 +478,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="C3" t="b">
-        <v>0</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -491,8 +495,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C4" t="b">
-        <v>0</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -506,8 +512,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="C5" t="b">
-        <v>0</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -521,8 +529,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="C6" t="b">
-        <v>0</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -536,8 +546,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="C7" t="b">
-        <v>0</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -551,8 +563,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="C8" t="b">
-        <v>0</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -566,8 +580,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="C9" t="b">
-        <v>0</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -581,8 +597,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="C10" t="b">
-        <v>0</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -596,8 +614,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C11" t="b">
-        <v>0</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -611,8 +631,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="C12" t="b">
-        <v>0</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -626,8 +648,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="C13" t="b">
-        <v>0</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -641,8 +665,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="C14" t="b">
-        <v>0</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -656,8 +682,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="C15" t="b">
-        <v>0</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -671,8 +699,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="C16" t="b">
-        <v>0</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,16 @@
           <t>counting-in-the-amazon</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>a-rule-of-divisibility-by-7</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>regular-ball-super-ball</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -466,6 +476,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -483,6 +503,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -500,6 +530,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -517,6 +557,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -534,6 +584,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -551,6 +611,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -568,6 +638,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -585,6 +665,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -602,6 +692,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -619,6 +719,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -636,6 +746,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -653,6 +773,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -670,6 +800,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -687,6 +827,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -700,6 +850,16 @@
         </is>
       </c>
       <c r="C16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>No</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>regular-ball-super-ball</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>deodorant-evaporator</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -486,6 +491,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +523,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -540,6 +555,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -567,6 +587,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -594,6 +619,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -621,6 +651,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -648,6 +683,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -675,6 +715,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -702,6 +747,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -729,6 +779,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -756,6 +811,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -783,6 +843,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -810,6 +875,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -837,6 +907,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -860,6 +935,11 @@
         </is>
       </c>
       <c r="E16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>No</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>deodorant-evaporator</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>tests-results</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -496,6 +501,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -528,6 +538,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -560,6 +575,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -592,6 +612,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -624,6 +649,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -656,6 +686,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -688,6 +723,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -720,6 +760,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -752,6 +797,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -784,6 +834,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -816,6 +871,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -848,6 +908,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -880,6 +945,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -912,6 +982,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -942,6 +1017,11 @@
       <c r="F16" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>tests-results</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>count-the-smiley-faces</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -503,8 +508,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -543,6 +551,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -580,6 +591,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -617,6 +631,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -654,6 +671,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -691,6 +711,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -728,6 +751,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -765,6 +791,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -802,6 +831,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -839,6 +871,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -876,6 +911,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -913,6 +951,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -950,6 +991,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -987,6 +1031,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1023,6 +1070,9 @@
         <is>
           <t>Good</t>
         </is>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -511,8 +511,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -551,8 +553,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -591,8 +595,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -631,8 +637,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="H5" t="b">
-        <v>0</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -671,8 +679,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="H6" t="b">
-        <v>0</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -711,8 +721,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="H7" t="b">
-        <v>0</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -751,8 +763,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="H8" t="b">
-        <v>0</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -791,8 +805,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="H9" t="b">
-        <v>0</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -831,8 +847,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="H10" t="b">
-        <v>0</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -871,8 +889,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="H11" t="b">
-        <v>0</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -911,8 +931,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="H12" t="b">
-        <v>0</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -951,8 +973,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="H13" t="b">
-        <v>0</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -991,8 +1015,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="H14" t="b">
-        <v>0</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1031,8 +1057,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="H15" t="b">
-        <v>0</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1071,8 +1099,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="H16" t="b">
-        <v>0</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,21 @@
           <t>count-the-smiley-faces</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>keep-hydrated-1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>tribonacci-sequence</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>schrodingers-boolean</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -516,6 +531,19 @@
           <t>No</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +586,19 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -597,8 +638,21 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -642,6 +696,19 @@
           <t>No</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -684,6 +751,19 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -726,6 +806,19 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -768,6 +861,19 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -810,6 +916,19 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -852,6 +971,19 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -894,6 +1026,19 @@
           <t>No</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -936,6 +1081,19 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -978,6 +1136,19 @@
           <t>No</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1020,6 +1191,19 @@
           <t>No</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1062,6 +1246,19 @@
           <t>No</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1103,6 +1300,19 @@
         <is>
           <t>Good</t>
         </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,31 @@
           <t>schrodingers-boolean</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>complementary-dna</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>sql-with-sailor-moon-thinking-about-joins-dot-dot-dot</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>sql-basics-monsters-using-case</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>sql-with-harry-potter-sorting-hat-comparators</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>see-you-next-happy-year</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -544,6 +569,29 @@
       <c r="K2" t="b">
         <v>0</v>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -599,6 +647,29 @@
       <c r="K3" t="b">
         <v>0</v>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -654,6 +725,29 @@
       <c r="K4" t="b">
         <v>0</v>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -709,6 +803,29 @@
       <c r="K5" t="b">
         <v>0</v>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -764,6 +881,29 @@
       <c r="K6" t="b">
         <v>0</v>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -819,6 +959,29 @@
       <c r="K7" t="b">
         <v>0</v>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -874,6 +1037,29 @@
       <c r="K8" t="b">
         <v>0</v>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -929,6 +1115,29 @@
       <c r="K9" t="b">
         <v>0</v>
       </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -984,6 +1193,29 @@
       <c r="K10" t="b">
         <v>0</v>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1039,6 +1271,29 @@
       <c r="K11" t="b">
         <v>0</v>
       </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1094,6 +1349,29 @@
       <c r="K12" t="b">
         <v>0</v>
       </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1149,6 +1427,29 @@
       <c r="K13" t="b">
         <v>0</v>
       </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1204,6 +1505,29 @@
       <c r="K14" t="b">
         <v>0</v>
       </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1259,6 +1583,29 @@
       <c r="K15" t="b">
         <v>0</v>
       </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1312,6 +1659,29 @@
         </is>
       </c>
       <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P16" t="b">
         <v>0</v>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -589,8 +589,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="P2" t="b">
-        <v>0</v>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -667,8 +669,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="P3" t="b">
-        <v>0</v>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -745,8 +749,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="P4" t="b">
-        <v>0</v>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -823,8 +829,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="P5" t="b">
-        <v>0</v>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -901,8 +909,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="P6" t="b">
-        <v>0</v>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -979,8 +989,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="P7" t="b">
-        <v>0</v>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1057,8 +1069,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="P8" t="b">
-        <v>0</v>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1135,8 +1149,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="P9" t="b">
-        <v>0</v>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1213,8 +1229,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="P10" t="b">
-        <v>0</v>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1291,8 +1309,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="P11" t="b">
-        <v>0</v>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1369,8 +1389,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="P12" t="b">
-        <v>0</v>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1447,8 +1469,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="P13" t="b">
-        <v>0</v>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1525,8 +1549,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="P14" t="b">
-        <v>0</v>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1603,8 +1629,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="P15" t="b">
-        <v>0</v>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1681,8 +1709,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="P16" t="b">
-        <v>0</v>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,11 @@
           <t>see-you-next-happy-year</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>pete-the-baker</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -594,6 +599,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -674,6 +682,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -754,6 +765,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -834,6 +848,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -914,6 +931,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -994,6 +1014,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1074,6 +1097,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1154,6 +1180,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1234,6 +1263,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1314,6 +1346,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1394,6 +1429,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1474,6 +1512,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1554,6 +1595,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1634,6 +1678,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="Q15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1713,6 +1760,9 @@
         <is>
           <t>Good</t>
         </is>
+      </c>
+      <c r="Q16" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,11 @@
           <t>pete-the-baker</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>the-deaf-rats-of-hamelin</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -599,7 +604,12 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="Q2" t="b">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -682,7 +692,12 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="Q3" t="b">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -765,7 +780,12 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="Q4" t="b">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -848,7 +868,12 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="Q5" t="b">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -931,7 +956,12 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="Q6" t="b">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1014,7 +1044,12 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="Q7" t="b">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1097,7 +1132,12 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="Q8" t="b">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1180,7 +1220,12 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="Q9" t="b">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1263,7 +1308,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q10" t="b">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1346,7 +1396,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q11" t="b">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1429,7 +1484,12 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="Q12" t="b">
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1512,7 +1572,12 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="Q13" t="b">
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1595,7 +1660,12 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="Q14" t="b">
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1678,7 +1748,12 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="Q15" t="b">
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1761,7 +1836,12 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="Q16" t="b">
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R16" t="b">
         <v>0</v>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -609,8 +609,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="R2" t="b">
-        <v>0</v>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -697,8 +699,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="R3" t="b">
-        <v>0</v>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -785,8 +789,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="R4" t="b">
-        <v>0</v>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -873,8 +879,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="R5" t="b">
-        <v>0</v>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -961,8 +969,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="R6" t="b">
-        <v>0</v>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1049,8 +1059,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="R7" t="b">
-        <v>0</v>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1137,8 +1149,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="R8" t="b">
-        <v>0</v>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1225,8 +1239,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="R9" t="b">
-        <v>0</v>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1313,8 +1329,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="R10" t="b">
-        <v>0</v>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1401,8 +1419,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R11" t="b">
-        <v>0</v>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1489,8 +1509,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="R12" t="b">
-        <v>0</v>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1577,8 +1599,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R13" t="b">
-        <v>0</v>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1665,8 +1689,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R14" t="b">
-        <v>0</v>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1753,8 +1779,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R15" t="b">
-        <v>0</v>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1841,8 +1869,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R16" t="b">
-        <v>0</v>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,11 @@
           <t>the-deaf-rats-of-hamelin</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>scraping-get-the-year-a-codewarrior-joined</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -614,6 +619,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -704,6 +712,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -794,6 +805,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -881,8 +895,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,6 +991,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1064,6 +1084,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="S7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1151,8 +1174,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1244,6 +1270,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="S9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1334,6 +1363,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="S10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1424,6 +1456,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="S11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1514,6 +1549,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="S12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1604,6 +1642,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="S13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1694,6 +1735,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="S14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1784,6 +1828,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="S15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1873,6 +1920,9 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="S16" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -619,8 +619,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S2" t="b">
-        <v>0</v>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -712,8 +714,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="S3" t="b">
-        <v>0</v>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -805,8 +809,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S4" t="b">
-        <v>0</v>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -898,8 +904,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="S5" t="b">
-        <v>0</v>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -991,8 +999,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S6" t="b">
-        <v>0</v>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1084,8 +1094,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="S7" t="b">
-        <v>0</v>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1177,8 +1189,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="S8" t="b">
-        <v>0</v>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1270,8 +1284,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S9" t="b">
-        <v>0</v>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1363,8 +1379,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="S10" t="b">
-        <v>0</v>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1456,8 +1474,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S11" t="b">
-        <v>0</v>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1549,8 +1569,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="S12" t="b">
-        <v>0</v>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1642,8 +1664,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S13" t="b">
-        <v>0</v>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1735,8 +1759,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S14" t="b">
-        <v>0</v>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1828,8 +1854,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S15" t="b">
-        <v>0</v>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1921,8 +1949,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S16" t="b">
-        <v>0</v>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,11 @@
           <t>scraping-get-the-year-a-codewarrior-joined</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>decode-the-morse-code</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -624,6 +629,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -719,6 +729,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -814,6 +829,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -909,6 +929,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1004,6 +1029,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1099,6 +1129,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1194,6 +1229,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1289,6 +1329,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1384,6 +1429,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1479,6 +1529,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1574,6 +1629,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1669,6 +1729,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1764,6 +1829,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1859,6 +1929,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1950,6 +2025,11 @@
         </is>
       </c>
       <c r="S16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
         <is>
           <t>No</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,6 +534,11 @@
           <t>decode-the-morse-code</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>the-supermarket-queue</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -634,6 +639,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -734,6 +742,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -834,6 +845,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -934,6 +948,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1031,8 +1048,11 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1134,6 +1154,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1234,6 +1257,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1334,6 +1360,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="U9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1434,6 +1463,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="U10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1534,6 +1566,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1634,6 +1669,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="U12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1734,6 +1772,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1834,6 +1875,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1934,6 +1978,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2033,6 +2080,9 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="U16" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,11 @@
           <t>the-supermarket-queue</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>80-s-kids-number-2-help-alf-find-his-spaceship</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -639,7 +644,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="U2" t="b">
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="V2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -742,7 +752,12 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="U3" t="b">
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="V3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -845,7 +860,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="U4" t="b">
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -948,7 +968,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="U5" t="b">
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1051,7 +1076,12 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="U6" t="b">
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="V6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1154,7 +1184,12 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="U7" t="b">
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="V7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1257,7 +1292,12 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="U8" t="b">
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1360,7 +1400,12 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="U9" t="b">
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1463,7 +1508,12 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="U10" t="b">
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="V10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1566,7 +1616,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="U11" t="b">
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1669,7 +1724,12 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="U12" t="b">
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1772,7 +1832,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="U13" t="b">
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1875,7 +1940,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="U14" t="b">
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1978,7 +2048,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="U15" t="b">
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2081,7 +2156,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="U16" t="b">
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V16" t="b">
         <v>0</v>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,6 +544,11 @@
           <t>80-s-kids-number-2-help-alf-find-his-spaceship</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>give-me-a-diamond</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -649,7 +654,12 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="V2" t="b">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -757,7 +767,12 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="V3" t="b">
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="W3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -865,7 +880,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V4" t="b">
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="W4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -973,7 +993,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V5" t="b">
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="W5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1081,7 +1106,12 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="V6" t="b">
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="W6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1189,7 +1219,12 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="V7" t="b">
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="W7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1297,7 +1332,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V8" t="b">
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="W8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1405,7 +1445,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V9" t="b">
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1513,7 +1558,12 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="V10" t="b">
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="W10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1621,7 +1671,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V11" t="b">
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1729,7 +1784,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V12" t="b">
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="W12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1837,7 +1897,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V13" t="b">
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1945,7 +2010,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V14" t="b">
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2053,7 +2123,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V15" t="b">
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2161,7 +2236,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V16" t="b">
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W16" t="b">
         <v>0</v>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>give-me-a-diamond</t>
+          <t>piano-kata-part-1</t>
         </is>
       </c>
     </row>
@@ -659,8 +659,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="W2" t="b">
-        <v>0</v>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -772,8 +774,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="W3" t="b">
-        <v>0</v>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -885,8 +889,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="W4" t="b">
-        <v>0</v>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -998,8 +1004,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="W5" t="b">
-        <v>0</v>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1111,8 +1119,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="W6" t="b">
-        <v>0</v>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1224,8 +1234,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="W7" t="b">
-        <v>0</v>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1337,8 +1349,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="W8" t="b">
-        <v>0</v>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1450,8 +1464,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="W9" t="b">
-        <v>0</v>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1563,8 +1579,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="W10" t="b">
-        <v>0</v>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1676,8 +1694,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="W11" t="b">
-        <v>0</v>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1789,8 +1809,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="W12" t="b">
-        <v>0</v>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1902,8 +1924,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="W13" t="b">
-        <v>0</v>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2015,8 +2039,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="W14" t="b">
-        <v>0</v>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2128,8 +2154,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="W15" t="b">
-        <v>0</v>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2241,8 +2269,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="W16" t="b">
-        <v>0</v>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,16 @@
           <t>piano-kata-part-1</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>give-me-a-diamond</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>complete-the-table-pattern</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -664,6 +674,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -779,6 +799,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -894,6 +924,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1009,6 +1049,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1124,6 +1174,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1239,6 +1299,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1354,6 +1424,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1469,6 +1549,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1584,6 +1674,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1699,6 +1799,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1814,6 +1924,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1929,6 +2049,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2044,6 +2174,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2159,6 +2299,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2270,6 +2420,16 @@
         </is>
       </c>
       <c r="W16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
         <is>
           <t>No</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,6 +559,11 @@
           <t>complete-the-table-pattern</t>
         </is>
       </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>computer-problem-series-number-2-torrent-download</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -684,6 +689,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="Z2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -809,6 +817,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="Z3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -934,6 +945,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="Z4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1059,6 +1073,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="Z5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1184,6 +1201,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="Z6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1309,6 +1329,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="Z7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1434,6 +1457,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="Z8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1559,6 +1585,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="Z9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1684,6 +1713,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="Z10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1809,6 +1841,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="Z11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1934,6 +1969,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="Z12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2059,6 +2097,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="Z13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2184,6 +2225,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="Z14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2309,6 +2353,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="Z15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2433,6 +2480,9 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="Z16" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,6 +564,11 @@
           <t>computer-problem-series-number-2-torrent-download</t>
         </is>
       </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>sql-basics-top-10-customers-by-total-payments-amount</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -689,8 +694,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Z2" t="b">
-        <v>0</v>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -817,8 +829,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="Z3" t="b">
-        <v>0</v>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -945,8 +964,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Z4" t="b">
-        <v>0</v>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1073,8 +1099,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Z5" t="b">
-        <v>0</v>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1201,8 +1234,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="Z6" t="b">
-        <v>0</v>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1329,8 +1369,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="Z7" t="b">
-        <v>0</v>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1457,8 +1504,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="Z8" t="b">
-        <v>0</v>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1585,8 +1639,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Z9" t="b">
-        <v>0</v>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1713,8 +1774,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="Z10" t="b">
-        <v>0</v>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1841,8 +1909,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Z11" t="b">
-        <v>0</v>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1969,8 +2044,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Z12" t="b">
-        <v>0</v>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2097,8 +2179,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Z13" t="b">
-        <v>0</v>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2225,8 +2314,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Z14" t="b">
-        <v>0</v>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2353,8 +2449,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Z15" t="b">
-        <v>0</v>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2481,8 +2584,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Z16" t="b">
-        <v>0</v>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
   </sheetData>
